--- a/src/test/java/ApachePOI/resource/Table.xlsx
+++ b/src/test/java/ApachePOI/resource/Table.xlsx
@@ -321,298 +321,298 @@
     <t>1x1 =1</t>
   </si>
   <si>
+    <t>2x1 =2</t>
+  </si>
+  <si>
+    <t>3x1 =3</t>
+  </si>
+  <si>
+    <t>4x1 =4</t>
+  </si>
+  <si>
+    <t>5x1 =5</t>
+  </si>
+  <si>
+    <t>6x1 =6</t>
+  </si>
+  <si>
+    <t>7x1 =7</t>
+  </si>
+  <si>
+    <t>8x1 =8</t>
+  </si>
+  <si>
+    <t>9x1 =9</t>
+  </si>
+  <si>
+    <t>10x1 =10</t>
+  </si>
+  <si>
     <t>1x2 =2</t>
   </si>
   <si>
+    <t>2x2 =4</t>
+  </si>
+  <si>
+    <t>3x2 =6</t>
+  </si>
+  <si>
+    <t>4x2 =8</t>
+  </si>
+  <si>
+    <t>5x2 =10</t>
+  </si>
+  <si>
+    <t>6x2 =12</t>
+  </si>
+  <si>
+    <t>7x2 =14</t>
+  </si>
+  <si>
+    <t>8x2 =16</t>
+  </si>
+  <si>
+    <t>9x2 =18</t>
+  </si>
+  <si>
+    <t>10x2 =20</t>
+  </si>
+  <si>
     <t>1x3 =3</t>
   </si>
   <si>
+    <t>2x3 =6</t>
+  </si>
+  <si>
+    <t>3x3 =9</t>
+  </si>
+  <si>
+    <t>4x3 =12</t>
+  </si>
+  <si>
+    <t>5x3 =15</t>
+  </si>
+  <si>
+    <t>6x3 =18</t>
+  </si>
+  <si>
+    <t>7x3 =21</t>
+  </si>
+  <si>
+    <t>8x3 =24</t>
+  </si>
+  <si>
+    <t>9x3 =27</t>
+  </si>
+  <si>
+    <t>10x3 =30</t>
+  </si>
+  <si>
     <t>1x4 =4</t>
   </si>
   <si>
+    <t>2x4 =8</t>
+  </si>
+  <si>
+    <t>3x4 =12</t>
+  </si>
+  <si>
+    <t>4x4 =16</t>
+  </si>
+  <si>
+    <t>5x4 =20</t>
+  </si>
+  <si>
+    <t>6x4 =24</t>
+  </si>
+  <si>
+    <t>7x4 =28</t>
+  </si>
+  <si>
+    <t>8x4 =32</t>
+  </si>
+  <si>
+    <t>9x4 =36</t>
+  </si>
+  <si>
+    <t>10x4 =40</t>
+  </si>
+  <si>
     <t>1x5 =5</t>
   </si>
   <si>
+    <t>2x5 =10</t>
+  </si>
+  <si>
+    <t>3x5 =15</t>
+  </si>
+  <si>
+    <t>4x5 =20</t>
+  </si>
+  <si>
+    <t>5x5 =25</t>
+  </si>
+  <si>
+    <t>6x5 =30</t>
+  </si>
+  <si>
+    <t>7x5 =35</t>
+  </si>
+  <si>
+    <t>8x5 =40</t>
+  </si>
+  <si>
+    <t>9x5 =45</t>
+  </si>
+  <si>
+    <t>10x5 =50</t>
+  </si>
+  <si>
     <t>1x6 =6</t>
   </si>
   <si>
+    <t>2x6 =12</t>
+  </si>
+  <si>
+    <t>3x6 =18</t>
+  </si>
+  <si>
+    <t>4x6 =24</t>
+  </si>
+  <si>
+    <t>5x6 =30</t>
+  </si>
+  <si>
+    <t>6x6 =36</t>
+  </si>
+  <si>
+    <t>7x6 =42</t>
+  </si>
+  <si>
+    <t>8x6 =48</t>
+  </si>
+  <si>
+    <t>9x6 =54</t>
+  </si>
+  <si>
+    <t>10x6 =60</t>
+  </si>
+  <si>
     <t>1x7 =7</t>
   </si>
   <si>
+    <t>2x7 =14</t>
+  </si>
+  <si>
+    <t>3x7 =21</t>
+  </si>
+  <si>
+    <t>4x7 =28</t>
+  </si>
+  <si>
+    <t>5x7 =35</t>
+  </si>
+  <si>
+    <t>6x7 =42</t>
+  </si>
+  <si>
+    <t>7x7 =49</t>
+  </si>
+  <si>
+    <t>8x7 =56</t>
+  </si>
+  <si>
+    <t>9x7 =63</t>
+  </si>
+  <si>
+    <t>10x7 =70</t>
+  </si>
+  <si>
     <t>1x8 =8</t>
   </si>
   <si>
+    <t>2x8 =16</t>
+  </si>
+  <si>
+    <t>3x8 =24</t>
+  </si>
+  <si>
+    <t>4x8 =32</t>
+  </si>
+  <si>
+    <t>5x8 =40</t>
+  </si>
+  <si>
+    <t>6x8 =48</t>
+  </si>
+  <si>
+    <t>7x8 =56</t>
+  </si>
+  <si>
+    <t>8x8 =64</t>
+  </si>
+  <si>
+    <t>9x8 =72</t>
+  </si>
+  <si>
+    <t>10x8 =80</t>
+  </si>
+  <si>
     <t>1x9 =9</t>
   </si>
   <si>
+    <t>2x9 =18</t>
+  </si>
+  <si>
+    <t>3x9 =27</t>
+  </si>
+  <si>
+    <t>4x9 =36</t>
+  </si>
+  <si>
+    <t>5x9 =45</t>
+  </si>
+  <si>
+    <t>6x9 =54</t>
+  </si>
+  <si>
+    <t>7x9 =63</t>
+  </si>
+  <si>
+    <t>8x9 =72</t>
+  </si>
+  <si>
+    <t>9x9 =81</t>
+  </si>
+  <si>
+    <t>10x9 =90</t>
+  </si>
+  <si>
     <t>1x10 =10</t>
   </si>
   <si>
-    <t>2x1 =2</t>
-  </si>
-  <si>
-    <t>2x2 =4</t>
-  </si>
-  <si>
-    <t>2x3 =6</t>
-  </si>
-  <si>
-    <t>2x4 =8</t>
-  </si>
-  <si>
-    <t>2x5 =10</t>
-  </si>
-  <si>
-    <t>2x6 =12</t>
-  </si>
-  <si>
-    <t>2x7 =14</t>
-  </si>
-  <si>
-    <t>2x8 =16</t>
-  </si>
-  <si>
-    <t>2x9 =18</t>
-  </si>
-  <si>
     <t>2x10 =20</t>
   </si>
   <si>
-    <t>3x1 =3</t>
-  </si>
-  <si>
-    <t>3x2 =6</t>
-  </si>
-  <si>
-    <t>3x3 =9</t>
-  </si>
-  <si>
-    <t>3x4 =12</t>
-  </si>
-  <si>
-    <t>3x5 =15</t>
-  </si>
-  <si>
-    <t>3x6 =18</t>
-  </si>
-  <si>
-    <t>3x7 =21</t>
-  </si>
-  <si>
-    <t>3x8 =24</t>
-  </si>
-  <si>
-    <t>3x9 =27</t>
-  </si>
-  <si>
     <t>3x10 =30</t>
   </si>
   <si>
-    <t>4x1 =4</t>
-  </si>
-  <si>
-    <t>4x2 =8</t>
-  </si>
-  <si>
-    <t>4x3 =12</t>
-  </si>
-  <si>
-    <t>4x4 =16</t>
-  </si>
-  <si>
-    <t>4x5 =20</t>
-  </si>
-  <si>
-    <t>4x6 =24</t>
-  </si>
-  <si>
-    <t>4x7 =28</t>
-  </si>
-  <si>
-    <t>4x8 =32</t>
-  </si>
-  <si>
-    <t>4x9 =36</t>
-  </si>
-  <si>
     <t>4x10 =40</t>
   </si>
   <si>
-    <t>5x1 =5</t>
-  </si>
-  <si>
-    <t>5x2 =10</t>
-  </si>
-  <si>
-    <t>5x3 =15</t>
-  </si>
-  <si>
-    <t>5x4 =20</t>
-  </si>
-  <si>
-    <t>5x5 =25</t>
-  </si>
-  <si>
-    <t>5x6 =30</t>
-  </si>
-  <si>
-    <t>5x7 =35</t>
-  </si>
-  <si>
-    <t>5x8 =40</t>
-  </si>
-  <si>
-    <t>5x9 =45</t>
-  </si>
-  <si>
     <t>5x10 =50</t>
   </si>
   <si>
-    <t>6x1 =6</t>
-  </si>
-  <si>
-    <t>6x2 =12</t>
-  </si>
-  <si>
-    <t>6x3 =18</t>
-  </si>
-  <si>
-    <t>6x4 =24</t>
-  </si>
-  <si>
-    <t>6x5 =30</t>
-  </si>
-  <si>
-    <t>6x6 =36</t>
-  </si>
-  <si>
-    <t>6x7 =42</t>
-  </si>
-  <si>
-    <t>6x8 =48</t>
-  </si>
-  <si>
-    <t>6x9 =54</t>
-  </si>
-  <si>
     <t>6x10 =60</t>
   </si>
   <si>
-    <t>7x1 =7</t>
-  </si>
-  <si>
-    <t>7x2 =14</t>
-  </si>
-  <si>
-    <t>7x3 =21</t>
-  </si>
-  <si>
-    <t>7x4 =28</t>
-  </si>
-  <si>
-    <t>7x5 =35</t>
-  </si>
-  <si>
-    <t>7x6 =42</t>
-  </si>
-  <si>
-    <t>7x7 =49</t>
-  </si>
-  <si>
-    <t>7x8 =56</t>
-  </si>
-  <si>
-    <t>7x9 =63</t>
-  </si>
-  <si>
     <t>7x10 =70</t>
   </si>
   <si>
-    <t>8x1 =8</t>
-  </si>
-  <si>
-    <t>8x2 =16</t>
-  </si>
-  <si>
-    <t>8x3 =24</t>
-  </si>
-  <si>
-    <t>8x4 =32</t>
-  </si>
-  <si>
-    <t>8x5 =40</t>
-  </si>
-  <si>
-    <t>8x6 =48</t>
-  </si>
-  <si>
-    <t>8x7 =56</t>
-  </si>
-  <si>
-    <t>8x8 =64</t>
-  </si>
-  <si>
-    <t>8x9 =72</t>
-  </si>
-  <si>
     <t>8x10 =80</t>
   </si>
   <si>
-    <t>9x1 =9</t>
-  </si>
-  <si>
-    <t>9x2 =18</t>
-  </si>
-  <si>
-    <t>9x3 =27</t>
-  </si>
-  <si>
-    <t>9x4 =36</t>
-  </si>
-  <si>
-    <t>9x5 =45</t>
-  </si>
-  <si>
-    <t>9x6 =54</t>
-  </si>
-  <si>
-    <t>9x7 =63</t>
-  </si>
-  <si>
-    <t>9x8 =72</t>
-  </si>
-  <si>
-    <t>9x9 =81</t>
-  </si>
-  <si>
     <t>9x10 =90</t>
-  </si>
-  <si>
-    <t>10x1 =10</t>
-  </si>
-  <si>
-    <t>10x2 =20</t>
-  </si>
-  <si>
-    <t>10x3 =30</t>
-  </si>
-  <si>
-    <t>10x4 =40</t>
-  </si>
-  <si>
-    <t>10x5 =50</t>
-  </si>
-  <si>
-    <t>10x6 =60</t>
-  </si>
-  <si>
-    <t>10x7 =70</t>
-  </si>
-  <si>
-    <t>10x8 =80</t>
-  </si>
-  <si>
-    <t>10x9 =90</t>
   </si>
   <si>
     <t>10x10 =100</t>
